--- a/data/Spreadsheet File.xlsx
+++ b/data/Spreadsheet File.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yizj/Desktop/Database Design/3-spreadsheet-analysis-beaverjuly/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ED9B20-A176-7340-9A77-91C55B347C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA698B9-A51E-AB4E-B07D-ABD1E3CB793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="760" windowWidth="16640" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="3060" windowWidth="16640" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,76 +18,13 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$H$2:$H$26</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$L$2:$L$26</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$2:$O$26</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$R$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$R$2:$R$26</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$I$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$L$2:$L$26</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$O$2:$O$26</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$R$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$R$2:$R$26</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$I$2:$I$26</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$L$2:$L$26</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$O$2:$O$26</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$R$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$R$2:$R$26</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$L$2:$L$26</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$L$2:$L$26</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$O$2:$O$26</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$R$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$R$2:$R$26</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$L$2:$L$26</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$O$2:$O$26</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$R$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$R$2:$R$26</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$L$2:$L$26</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$O$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$2:$O$26</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$O$2:$O$26</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$R$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$R$2:$R$26</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$L$2:$L$26</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$O$2:$O$26</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$R$1</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$R$1</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$R$2:$R$26</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$R$2:$R$26</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$H$2:$H$26</definedName>
     <definedName name="clean_data_file" localSheetId="0">Sheet1!$A$1:$G$1095</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -112,7 +49,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0A289198-74F1-3D41-B466-2AD86231B6AE}" name="clean_data_file" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/yizj/Desktop/Database Design/3-spreadsheet-analysis-beaverjuly/data/clean_data_file.csv" comma="1">
+    <textPr sourceFile="/Users/yizj/Desktop/Database Design/3-spreadsheet-analysis-beaverjuly/data/clean_data_file.csv" comma="1">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -150,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="59">
   <si>
     <t>Year</t>
   </si>
@@ -316,6 +253,18 @@
   <si>
     <t>SD Death Rate (Hispanic)</t>
   </si>
+  <si>
+    <t>Mean-Median Difference (White, Non-Hispanic)</t>
+  </si>
+  <si>
+    <t>Mean-Median Difference (Asian and Pacific Islanders)</t>
+  </si>
+  <si>
+    <t>Mean-Median Difference (Black, Non-Hispanic)</t>
+  </si>
+  <si>
+    <t>Mean-Median Difference (Hispanic)</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +308,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -398,7 +347,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.51499057840699847"/>
+          <c:y val="4.0304305107731482E-2"/>
+          <c:w val="0.48500942159300153"/>
+          <c:h val="0.94368992430427745"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1549,6 +1508,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27682417086399236"/>
+          <c:y val="7.0298769771528994E-3"/>
+          <c:w val="0.67201134889985881"/>
+          <c:h val="3.0462062189502235E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1644,7 +1613,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.53202698570445683"/>
-          <c:y val="3.7656182014681322E-2"/>
+          <c:y val="3.5019996402031475E-2"/>
           <c:w val="0.46797301429554317"/>
           <c:h val="0.94367622496385817"/>
         </c:manualLayout>
@@ -3938,14 +3907,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>882650</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -3974,16 +3943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4312,10 +4281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1098"/>
+  <dimension ref="A1:X1098"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4337,10 +4306,12 @@
     <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="8.83203125" style="1"/>
     <col min="20" max="20" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="1"/>
+    <col min="21" max="22" width="8.83203125" style="1"/>
+    <col min="23" max="23" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4401,8 +4372,20 @@
       <c r="T1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2007</v>
       </c>
@@ -4475,8 +4458,24 @@
         <f t="array" ref="T2">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H2) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>5.2384839682597368</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="U2" s="1">
+        <f>ABS(L2 - M2)</f>
+        <v>8.1250000000000711E-2</v>
+      </c>
+      <c r="V2" s="1">
+        <f>ABS(I2 - J2)</f>
+        <v>0.33124999999999893</v>
+      </c>
+      <c r="W2" s="1">
+        <f>ABS(O2 - P2)</f>
+        <v>1.9555555555555557</v>
+      </c>
+      <c r="X2" s="1">
+        <f>ABS(R2 - S2)</f>
+        <v>1.1800000000000015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2007</v>
       </c>
@@ -4549,8 +4548,24 @@
         <f t="array" ref="T3">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H3) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>12.047821379818012</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U26" si="4">ABS(L3 - M3)</f>
+        <v>4.4249999999999829</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V26" si="5">ABS(I3 - J3)</f>
+        <v>1.3125</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3:W26" si="6">ABS(O3 - P3)</f>
+        <v>2.3187499999999943</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3:X26" si="7">ABS(R3 - S3)</f>
+        <v>0.42499999999999716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2007</v>
       </c>
@@ -4623,8 +4638,24 @@
         <f t="array" ref="T4">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H4) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>2.5982045082453937</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U4" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.56666666666666687</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.31666666666666643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2007</v>
       </c>
@@ -4688,8 +4719,24 @@
         <f t="array" ref="T5">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H5) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U5" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V5" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W5" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X5" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2007</v>
       </c>
@@ -4753,8 +4800,24 @@
         <f t="array" ref="T6">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H6) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="U6" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V6" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7750000000000021</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -4827,8 +4890,24 @@
         <f t="array" ref="T7">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H7) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U7" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V7" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W7" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X7" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2007</v>
       </c>
@@ -4901,8 +4980,24 @@
         <f t="array" ref="T8">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H8) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>1.8938056922503899</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="U8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30625000000000213</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5375000000000032</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.70625000000000071</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.33750000000000036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -4975,8 +5070,24 @@
         <f t="array" ref="T9">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H9) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U9" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X9" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2007</v>
       </c>
@@ -5049,8 +5160,24 @@
         <f t="array" ref="T10">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H10) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>3.7697118288706419</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U10" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43333333333333268</v>
+      </c>
+      <c r="W10" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="7"/>
+        <v>1.7545454545454522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -5117,8 +5244,24 @@
         <f t="array" ref="T11">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H11) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>1.4019374349194793</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="U11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.79374999999999929</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.78749999999999964</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.44000000000000128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2007</v>
       </c>
@@ -5185,8 +5328,24 @@
         <f t="array" ref="T12">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H12) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="U12" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X12" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2007</v>
       </c>
@@ -5259,8 +5418,24 @@
         <f t="array" ref="T13">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H13) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>1.0544350778181337</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.21250000000000213</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.61250000000000071</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5625</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="7"/>
+        <v>0.33749999999999858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2007</v>
       </c>
@@ -5333,8 +5508,24 @@
         <f t="array" ref="T14">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H14) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>8.5436526146607807</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U14" s="1">
+        <f t="shared" si="4"/>
+        <v>22.993749999999977</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.90624999999998579</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="6"/>
+        <v>4.8312499999999829</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="7"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2007</v>
       </c>
@@ -5407,8 +5598,24 @@
         <f t="array" ref="T15">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H15) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>0.94112394811432798</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="U15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38124999999999964</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000462E-2</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="6"/>
+        <v>0.71874999999999645</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="7"/>
+        <v>0.15000000000000036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2007</v>
       </c>
@@ -5481,8 +5688,24 @@
         <f t="array" ref="T16">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H16) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>5.1222741343755063</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U16" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V16" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3000000000000043</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="7"/>
+        <v>2.2538461538461529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2007</v>
       </c>
@@ -5549,8 +5772,24 @@
         <f t="array" ref="T17">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H17) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>1.2786548921946583</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.9375</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="7"/>
+        <v>0.31875000000000142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2007</v>
       </c>
@@ -5617,8 +5856,24 @@
         <f t="array" ref="T18">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H18) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U18" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V18" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W18" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X18" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -5691,8 +5946,24 @@
         <f t="array" ref="T19">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H19) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U19" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2500000000002842E-2</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="5"/>
+        <v>6.6666666666667318E-2</v>
+      </c>
+      <c r="W19" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X19" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2007</v>
       </c>
@@ -5765,8 +6036,24 @@
         <f t="array" ref="T20">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H20) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>5.4515708745278184</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="U20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.22499999999996589</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3687500000000057</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98749999999998295</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="7"/>
+        <v>0.73124999999998863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -5839,8 +6126,24 @@
         <f t="array" ref="T21">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H21) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>4.8141080548359465</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="U21" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4636363636363612</v>
+      </c>
+      <c r="V21" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="7"/>
+        <v>0.98181818181818237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2007</v>
       </c>
@@ -5913,8 +6216,24 @@
         <f t="array" ref="T22">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H22) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="U22" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W22" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2007</v>
       </c>
@@ -5981,8 +6300,24 @@
         <f t="array" ref="T23">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H23) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U23" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="6"/>
+        <v>5.7142857142857828E-2</v>
+      </c>
+      <c r="X23" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -6049,8 +6384,24 @@
         <f t="array" ref="T24">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H24) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="U24" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V24" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W24" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X24" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2007</v>
       </c>
@@ -6123,8 +6474,24 @@
         <f t="array" ref="T25">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H25) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="U25" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V25" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W25" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X25" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2007</v>
       </c>
@@ -6188,8 +6555,24 @@
         <f t="array" ref="T26">IFERROR(_xlfn.STDEV.S(IF(($B$2:$B$1095=H26) * ($D$2:$D$1095="Hispanic"), $G$2:$G$1095)), NA())</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="U26" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V26" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W26" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X26" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2007</v>
       </c>
@@ -6212,7 +6595,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2007</v>
       </c>
@@ -6226,7 +6609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2007</v>
       </c>
@@ -6240,7 +6623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2007</v>
       </c>
@@ -6263,7 +6646,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
@@ -6286,7 +6669,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2007</v>
       </c>
